--- a/data/trans_bre/P31_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P31_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>12,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,97</t>
+          <t>12,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>21,71</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>49,96%</t>
+          <t>72,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>73,78%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,94%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>132,18%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 18,66</t>
+          <t>-4,83; 31,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 22,4</t>
+          <t>-6,92; 30,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,39; 19,6</t>
+          <t>-39,99; 26,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-52,62; 143,81</t>
+          <t>1,19; 46,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,83; 167,16</t>
+          <t>-28,02; 427,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-47,25; 110,53</t>
+          <t>-24,52; 387,55</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-67,21; 140,55</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-1,05; 666,37</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,8</t>
+          <t>11,03</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,84</t>
+          <t>14,13</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>12,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>55,89%</t>
+          <t>-0,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>104,74%</t>
+          <t>45,58%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>99,72%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>95,15%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 11,92</t>
+          <t>-15,08; 9,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,52; 20,7</t>
+          <t>-2,32; 21,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,48; 23,19</t>
+          <t>5,1; 23,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,89; 78,57</t>
+          <t>2,84; 19,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,45; 110,07</t>
+          <t>-48,04; 62,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,9; 192,22</t>
+          <t>-9,76; 117,63</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>25,21; 232,52</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>16,53; 254,3</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,48</t>
+          <t>7,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,6</t>
+          <t>11,47</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,75</t>
+          <t>6,93</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>81,1%</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>63,38%</t>
+          <t>62,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>55,27%</t>
+          <t>79,18%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>46,73%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>45,41%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 14,81</t>
+          <t>-1,01; 15,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,05; 18,14</t>
+          <t>2,38; 20,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 15,93</t>
+          <t>-2,36; 15,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,75; 211,17</t>
+          <t>-3,37; 13,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,05; 141,32</t>
+          <t>-7,97; 197,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 126,88</t>
+          <t>10,29; 208,82</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-13,06; 142,29</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-20,66; 162,11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,33</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>55,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>67,67%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 11,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,91; 16,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,47; 16,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 82,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,72; 96,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,21; 114,98</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4,35</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11,0</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9,19</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11,81</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>24,73%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>56,2%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>49,8%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>87,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-3,8; 10,54</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,66; 17,46</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 17,28</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5,89; 19,46</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-17,37; 79,35</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7,49; 111,24</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-7,28; 115,34</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>33,53; 184,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P31_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P31_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>12,18</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>12,32</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,82</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>21,71</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>72,27%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>73,78%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-1,94%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>132,18%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.703656141631265</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>12.47590506518769</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.469033394414905</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>21.77216961889143</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.3310900096724145</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.6472220947876137</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.06122484898194137</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.27210301439952</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,83; 31,17</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,92; 30,54</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-39,99; 26,93</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>1,19; 46,96</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-28,02; 427,99</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-24,52; 387,55</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-67,21; 140,55</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-1,05; 666,37</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-14.41701379827289</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.02331255223695</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-36.66627627140119</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>3.137591495812814</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.4456617991079294</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.3095726777885733</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.6404790082291525</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.02796956494430924</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>25.31305680381102</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>32.54643828058556</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>29.31019636772433</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>45.34765307513284</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>2.670905716623217</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>3.458892375780477</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.545501639077222</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>6.318487872371488</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>11,03</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>14,13</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>12,0</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-0,73%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>45,58%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>99,72%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>95,15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-15,08; 9,84</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 21,63</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5,1; 23,49</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,84; 19,91</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-48,04; 62,16</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-9,76; 117,63</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>25,21; 232,52</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>16,53; 254,3</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.02253985596578911</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>11.67259605949885</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>14.91239022624229</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>12.45812326673939</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.00105376794253968</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.4717338923848173</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.10052732123046</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.9762717501978272</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7,52</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>11,47</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,93</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,98</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>62,29%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>79,18%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>46,73%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>45,41%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-14.17994265097641</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.02927630330845772</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>6.108314337664995</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>3.325841448679698</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.4846655545258998</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.02614230453942794</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.2928661135271718</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.1857664757261386</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,01; 15,5</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 20,37</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,36; 15,15</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,37; 13,63</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-7,97; 197,02</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>10,29; 208,82</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-13,06; 142,29</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-20,66; 162,11</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.43236463194761</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>22.46915986969761</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>24.40461505966937</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>20.05306001902901</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.6084655546532973</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.218308974462006</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.567188206141527</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.19908709078711</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>8.83591207794522</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>11.62164553426717</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6.452453888558332</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>6.489754732153666</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.817398946648687</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.8114247435331311</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.4221907259465382</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.4895194250430898</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.8468832568302294</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1.804455805678428</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.152864322618187</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.338155899510523</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.01414652589433013</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.06518545089341245</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.1783530449506102</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1951379810825656</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>17.0661737848998</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>21.09100047862373</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>14.93140186239784</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>15.09481545283975</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.361195819281146</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>2.075211828613012</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.40751777180604</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.566228832503871</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>4,35</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>11,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>9,19</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>11,81</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>24,73%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>56,2%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>49,8%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>87,8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,8; 10,54</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,66; 17,46</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 17,28</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>5,89; 19,46</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-17,37; 79,35</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>7,49; 111,24</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-7,28; 115,34</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>33,53; 184,89</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>4.29815621411603</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>11.35523594617646</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>10.21224518850195</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>12.31244208352712</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.2506675140142797</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.5628172489673831</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.5714541475626583</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.9018023314851942</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.882816077093606</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>4.782445130520132</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.464917532014212</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>5.759238945488091</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1868568026097047</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.1733904211286511</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.01349155926141375</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.3291595392224764</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.61891316148139</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>18.49733466237612</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>18.28041441520801</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>20.07385247304963</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.7937428100586172</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.168883238193511</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.272887018986779</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.813032210611737</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
